--- a/writings/fig/2feature_lik.xlsx
+++ b/writings/fig/2feature_lik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhexuanxu/Documents/GitHub/hierarchical_bayesian/writings/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100008_{7C2E6641-FDF5-3D47-B4DB-72B0BD3CB3D3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100008_{A5D39F7B-82B5-D040-80E8-1CF95F9B3BB9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39760" yWindow="2080" windowWidth="31200" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37080" yWindow="2880" windowWidth="31200" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VB1_lik" sheetId="1" r:id="rId1"/>
@@ -2953,7 +2953,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65%"/>
@@ -2966,10 +2966,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1800" b="1"/>
                   <a:t>Time(Minutes)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2986,7 +2986,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65%"/>
@@ -3071,7 +3071,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65%"/>
@@ -3084,14 +3084,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1800" b="1"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
                   <a:t>L</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1800" b="1"/>
                   <a:t>ikelihood</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3108,7 +3112,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65%"/>
@@ -3775,195 +3779,190 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
+      <xdr:colOff>501650</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
+      <xdr:colOff>120650</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="组合 3">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3659DCDB-7BB4-4747-8927-279947453FD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31F2178-8946-3243-BFF2-1E2966E6B1D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082C8B0D-43B8-DB47-9D25-3D4C39798752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6343650" y="7480300"/>
-          <a:ext cx="4572000" cy="2743200"/>
-          <a:chOff x="6343650" y="7480300"/>
-          <a:chExt cx="4572000" cy="2743200"/>
+          <a:off x="8001000" y="8229600"/>
+          <a:ext cx="114300" cy="114282"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:graphicFrame macro="">
-        <xdr:nvGraphicFramePr>
-          <xdr:cNvPr id="2" name="图表 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31F2178-8946-3243-BFF2-1E2966E6B1D0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGraphicFramePr/>
-        </xdr:nvGraphicFramePr>
-        <xdr:xfrm>
-          <a:off x="6343650" y="7480300"/>
-          <a:ext cx="4572000" cy="2743200"/>
-        </xdr:xfrm>
-        <a:graphic>
-          <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-            <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
-          </a:graphicData>
-        </a:graphic>
-      </xdr:graphicFrame>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="椭圆 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082C8B0D-43B8-DB47-9D25-3D4C39798752}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8001000" y="8229600"/>
-            <a:ext cx="114300" cy="114282"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50%"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square"/>
-          <a:lstStyle>
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50%"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
